--- a/output/date/2021-12-19/2021-12-19_프린터기.xlsx
+++ b/output/date/2021-12-19/2021-12-19_프린터기.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>197000</t>
+          <t>198000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>142930</t>
+          <t>142880</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>사나고 3D펜 고급형</t>
+          <t>삼성전자 삼성 SL-J1770FW 정품잉크포함</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25665893522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18378943253</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2566589/25665893522.20210119160253.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1837894/18378943253.20190329110354.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>59000</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1316,10 +1316,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>사나고</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1332,12 +1336,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>복합기</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3D프린터</t>
+          <t>잉크젯복합기</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1351,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 SL-J1770FW 정품잉크포함</t>
+          <t>사나고 3D펜 고급형</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18378943253</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25665893522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1837894/18378943253.20190329110354.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2566589/25665893522.20210119160253.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>59000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1378,14 +1382,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>사나고</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>복합기</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>잉크젯복합기</t>
+          <t>3D프린터</t>
         </is>
       </c>
     </row>
@@ -1545,22 +1545,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 SL-M2843DW 정품토너포함</t>
+          <t>삼성전자 삼성 SL-M2030W 정품토너포함</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22846051427</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21379907273</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2284605/22846051427.20200724162901.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2137990/21379907273.20200221180856.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>134900</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 SL-M2030W 정품토너포함</t>
+          <t>삼성전자 삼성 SL-M2843DW 정품토너포함</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21379907273</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22846051427</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2137990/21379907273.20200221180856.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2284605/22846051427.20200724162901.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>134900</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -2073,39 +2073,43 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>디앤에스글로벌 휴대용 멀티 스티커 프린터 프릭커</t>
+          <t>HP 2131 가정용 프린터기 무한잉크 복합기 잉크젯 프린트 복사 공기계</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28859379589</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82335217020</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2885937/28859379589.20210915163615.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8233521/82335217020.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>잉크시대</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>디앤에스글로벌</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2120,12 +2124,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>복합기</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>라벨프린터</t>
+          <t>잉크젯복합기</t>
         </is>
       </c>
     </row>
@@ -2135,43 +2139,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HP 2131 가정용 프린터기 무한잉크 복합기 잉크젯 프린트 복사 공기계</t>
+          <t>아이티씨 퓨리웨이 휴대용 무선 라벨프린터 D11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82335217020</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28177801522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8233521/82335217020.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817780/28177801522.20210727183423.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>잉크시대</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>퓨리웨이</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>아이티씨</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2186,12 +2190,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>복합기</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>잉크젯복합기</t>
+          <t>라벨프린터</t>
         </is>
       </c>
     </row>
@@ -2201,22 +2205,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>아이티씨 퓨리웨이 휴대용 무선 라벨프린터 D11</t>
+          <t>엡손 완성형 L3156 정품 무한잉크</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28177801522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17767089381</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2817780/28177801522.20210727183423.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1776708/17767089381.20210701153200.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2232,12 +2236,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>퓨리웨이</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>아이티씨</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2252,12 +2256,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>복합기</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>라벨프린터</t>
+          <t>잉크젯복합기</t>
         </is>
       </c>
     </row>
@@ -2267,22 +2271,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>엡손 완성형 L3156 정품 무한잉크</t>
+          <t>디앤에스글로벌 휴대용 멀티 스티커 프린터 프릭커</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17767089381</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28859379589</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1776708/17767089381.20210701153200.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2885937/28859379589.20210915163615.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2296,14 +2300,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>엡손</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>디앤에스글로벌</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>복합기</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>잉크젯복합기</t>
+          <t>라벨프린터</t>
         </is>
       </c>
     </row>
@@ -4375,22 +4375,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>엡손 LW-K200KP</t>
+          <t>브라더 PT-P300BT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26208478522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13419538634</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2620847/26208478522.20210402090844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1341953/13419538634.20200108103842.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>95920</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>브라더</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>브라더</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>브라더 PT-P300BT</t>
+          <t>엡손 LW-K200KP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13419538634</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26208478522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1341953/13419538634.20200108103842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2620847/26208478522.20210402090844.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>95920</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>브라더</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>브라더</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4903,22 +4903,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>캐논 인스픽 iNSPiC PV-123</t>
+          <t>카피어랜드 D30S</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16198366421</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27505417522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1619836/16198366421.20190115111910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2750541/27505417522.20211124163427.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>38900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>카피어랜드</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>카피어랜드</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>포토프린터</t>
+          <t>라벨프린터</t>
         </is>
       </c>
     </row>
@@ -4969,22 +4969,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>카피어랜드 D30S</t>
+          <t>캐논 인스픽 iNSPiC PV-123</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27505417522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16198366421</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2750541/27505417522.20211124163427.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1619836/16198366421.20190115111910.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>38900</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -5000,12 +5000,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>카피어랜드</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>카피어랜드</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>라벨프린터</t>
+          <t>포토프린터</t>
         </is>
       </c>
     </row>
@@ -5233,41 +5233,45 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성 프린터 컬러 레이저 프린트 가정용 사무실 무선 와이파이 레이져 복합기 팩스 스캔 복사</t>
+          <t>캐논 G3960 정품 무한잉크</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82314641450</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25732367524</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8231464/82314641450.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2573236/25732367524.20210125110819.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>정품인증판매점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>캐논</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>캐논</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5280,12 +5284,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>복합기</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>레이저프린터</t>
+          <t>잉크젯복합기</t>
         </is>
       </c>
     </row>
@@ -5295,45 +5299,41 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>캐논 G3960 정품 무한잉크</t>
+          <t>삼성 프린터 컬러 레이저 프린트 가정용 사무실 무선 와이파이 레이져 복합기 팩스 스캔 복사</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25732367524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82314641450</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2573236/25732367524.20210125110819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8231464/82314641450.1.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>정품인증판매점</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>캐논</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>캐논</t>
-        </is>
-      </c>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>복합기</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>잉크젯복합기</t>
+          <t>레이저프린터</t>
         </is>
       </c>
     </row>
@@ -5559,22 +5559,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>캐논 LBP-6033 정품토너포함</t>
+          <t>에일리언테크놀로지아시아 뉴펜톡 3D펜 패키지 + PLA 필라멘트 5m 20색 세트</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7838416148</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24173914522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7838416/7838416148.20141206171232.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417391/24173914522.20210216172007.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>109900</t>
+          <t>102300</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5590,12 +5590,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>펜톡</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>에일리언테크놀로지아시아</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>레이저프린터</t>
+          <t>3D프린터</t>
         </is>
       </c>
     </row>
@@ -5625,43 +5625,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성 복합기렌탈 CLX-6260FR 사무용 컬러 레이저 프린터 임대 36개월</t>
+          <t>캐논 LBP-6033 정품토너포함</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27492096087</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7838416148</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749209/27492096087.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7838416/7838416148.20141206171232.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>109900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>오에이유</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>복합기</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>컬러레이저복합기</t>
+          <t>레이저프린터</t>
         </is>
       </c>
     </row>
@@ -5691,43 +5691,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>에일리언테크놀로지아시아 뉴펜톡 3D펜 패키지 + PLA 필라멘트 5m 20색 세트</t>
+          <t>삼성 복합기렌탈 CLX-6260FR 사무용 컬러 레이저 프린터 임대 36개월</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24173914522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27492096087</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417391/24173914522.20210216172007.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749209/27492096087.2.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>102300</t>
+          <t>40000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>오에이유</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>펜톡</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>에일리언테크놀로지아시아</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>복합기</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3D프린터</t>
+          <t>컬러레이저복합기</t>
         </is>
       </c>
     </row>
